--- a/Data/Original_Data/Supplementary-Workbook-2_Env-Data-2020.xlsx
+++ b/Data/Original_Data/Supplementary-Workbook-2_Env-Data-2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claraseibel/Documents/University/Masters/Year 1/NSCI7915/Dataset/Relevant Information/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/claraseibel/Documents/University/Masters/Year 1/NSCI7915/MyRepo/Data/Original_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B5744C-2DA7-5647-8831-07C664375A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001E7025-4403-3B4B-B63C-7873F1E92BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="980" windowWidth="25040" windowHeight="14500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="160" yWindow="980" windowWidth="25040" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Water phys-chem (sonde)" sheetId="3" r:id="rId1"/>
@@ -1301,7 +1301,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1454,6 +1454,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1803,13 +1816,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2167,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE54C07D-BE75-4245-AAE0-359497C67A4A}">
   <dimension ref="A1:W35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2182,8 +2197,8 @@
       <c r="A1" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
+      <c r="B1" s="6" t="s">
+        <v>423</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>92</v>
@@ -2253,7 +2268,7 @@
       <c r="A2" t="s">
         <v>404</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>118</v>
       </c>
       <c r="C2">
@@ -2324,7 +2339,7 @@
       <c r="A3" t="s">
         <v>404</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C3">
@@ -2395,7 +2410,7 @@
       <c r="A4" t="s">
         <v>404</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>114</v>
       </c>
       <c r="C4">
@@ -2466,7 +2481,7 @@
       <c r="A5" t="s">
         <v>404</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C5">
@@ -2537,7 +2552,7 @@
       <c r="A6" t="s">
         <v>404</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="7" t="s">
         <v>116</v>
       </c>
       <c r="C6">
@@ -2608,7 +2623,7 @@
       <c r="A7" t="s">
         <v>404</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>117</v>
       </c>
       <c r="C7">
@@ -2679,7 +2694,7 @@
       <c r="A8" t="s">
         <v>404</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C8">
@@ -2750,7 +2765,7 @@
       <c r="A9" t="s">
         <v>404</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="7" t="s">
         <v>120</v>
       </c>
       <c r="C9">
@@ -2821,7 +2836,7 @@
       <c r="A10" t="s">
         <v>404</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C10">
@@ -2892,7 +2907,7 @@
       <c r="A11" t="s">
         <v>404</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="7" t="s">
         <v>122</v>
       </c>
       <c r="C11">
@@ -2963,7 +2978,7 @@
       <c r="A12" t="s">
         <v>405</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="7" t="s">
         <v>409</v>
       </c>
       <c r="C12">
@@ -3034,7 +3049,7 @@
       <c r="A13" t="s">
         <v>405</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="7" t="s">
         <v>410</v>
       </c>
       <c r="C13">
@@ -3105,7 +3120,7 @@
       <c r="A14" t="s">
         <v>405</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="7" t="s">
         <v>413</v>
       </c>
       <c r="C14">
@@ -3176,7 +3191,7 @@
       <c r="A15" t="s">
         <v>405</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="7" t="s">
         <v>415</v>
       </c>
       <c r="C15">
@@ -3247,7 +3262,7 @@
       <c r="A16" t="s">
         <v>405</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="7" t="s">
         <v>416</v>
       </c>
       <c r="C16">
@@ -3318,7 +3333,7 @@
       <c r="A17" t="s">
         <v>405</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="7" t="s">
         <v>417</v>
       </c>
       <c r="C17">
@@ -3389,7 +3404,7 @@
       <c r="A18" t="s">
         <v>405</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="7" t="s">
         <v>418</v>
       </c>
       <c r="C18">
@@ -3460,7 +3475,7 @@
       <c r="A19" t="s">
         <v>405</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="7" t="s">
         <v>411</v>
       </c>
       <c r="C19">
@@ -3531,7 +3546,7 @@
       <c r="A20" t="s">
         <v>405</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="7" t="s">
         <v>412</v>
       </c>
       <c r="C20">
@@ -3602,7 +3617,7 @@
       <c r="A21" t="s">
         <v>405</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="7" t="s">
         <v>414</v>
       </c>
       <c r="C21">
@@ -3673,7 +3688,7 @@
       <c r="A22" t="s">
         <v>406</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>419</v>
       </c>
       <c r="C22">
@@ -3744,7 +3759,7 @@
       <c r="A23" t="s">
         <v>406</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="7" t="s">
         <v>420</v>
       </c>
       <c r="C23">
@@ -3815,7 +3830,7 @@
       <c r="A24" t="s">
         <v>406</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>421</v>
       </c>
       <c r="C24">
@@ -3886,7 +3901,7 @@
       <c r="A25" t="s">
         <v>406</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>422</v>
       </c>
       <c r="C25">
@@ -3957,7 +3972,7 @@
       <c r="A26" t="s">
         <v>407</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="7" t="s">
         <v>123</v>
       </c>
       <c r="C26">
@@ -4028,7 +4043,7 @@
       <c r="A27" t="s">
         <v>407</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="7" t="s">
         <v>124</v>
       </c>
       <c r="C27">
@@ -4099,7 +4114,7 @@
       <c r="A28" t="s">
         <v>407</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="7" t="s">
         <v>125</v>
       </c>
       <c r="C28">
@@ -4170,7 +4185,7 @@
       <c r="A29" t="s">
         <v>407</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C29">
@@ -4241,7 +4256,7 @@
       <c r="A30" t="s">
         <v>407</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>129</v>
       </c>
       <c r="C30">
@@ -4312,7 +4327,7 @@
       <c r="A31" t="s">
         <v>407</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>132</v>
       </c>
       <c r="C31">
@@ -4383,7 +4398,7 @@
       <c r="A32" t="s">
         <v>407</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>126</v>
       </c>
       <c r="C32">
@@ -4454,7 +4469,7 @@
       <c r="A33" t="s">
         <v>407</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>128</v>
       </c>
       <c r="C33">
@@ -4525,7 +4540,7 @@
       <c r="A34" t="s">
         <v>407</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>130</v>
       </c>
       <c r="C34">
@@ -4596,7 +4611,7 @@
       <c r="A35" t="s">
         <v>407</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C35">
@@ -7551,7 +7566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CE39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
